--- a/biology/Médecine/Hassan_Tidjani_Haddam/Hassan_Tidjani_Haddam.xlsx
+++ b/biology/Médecine/Hassan_Tidjani_Haddam/Hassan_Tidjani_Haddam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hassan Tidjani Haddam (en arabe : حسان تيجاني هدام), né le 12 décembre 1962 à Tlemcen, est un homme politique algérien.
@@ -515,14 +527,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Etudes
-Doctorat en médecine générale (Institut des sciences médicales - Algérie) 1987.
+          <t>Etudes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Doctorat en médecine générale (Institut des sciences médicales - Algérie) 1987.
 Certificat d'études médicales spécialisées - Pédiatrie - (Institut des sciences médicales Algérie) 1994.
 Diplôme inter universitaire d'allergie et d'immunologie (Professeur Douaghi) 2003.
 Inscrit en deuxième année - capacités de sensibilité - (Université René-Descartes - Paris) 2007-2008.
-Doctorat en Sciences médicales - Pédiatrie - Sujet de thèse: Compensation des médicaments anti-asthmatiques en Algérie: une approche de la propagation et du contrôle de l'asthme, juillet 2018.
-Carrière
-Professeur à l'école paramédicale du centre hospitalier universitaire Mustapha Pacha 1989-1995.
+Doctorat en Sciences médicales - Pédiatrie - Sujet de thèse: Compensation des médicaments anti-asthmatiques en Algérie: une approche de la propagation et du contrôle de l'asthme, juillet 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hassan_Tidjani_Haddam</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hassan_Tidjani_Haddam</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Professeur à l'école paramédicale du centre hospitalier universitaire Mustapha Pacha 1989-1995.
 Professeur assistant de pédiatrie (1er du groupe) 2008.
 Directeur général de la Caisse nationale de retraite, septembre 2019-mai 2015.
 Directeur général de la Caisse nationale des assurances sociales des salariés, juin 2015-avril 2019.
@@ -530,33 +581,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Hassan_Tidjani_Haddam</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hassan_Tidjani_Haddam</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Contrôle judiciaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En juillet 2023, il est placé sous contrôle judiciaire, avec interdiction de quitter le territoire, à la suite de faits de corruption[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2023, il est placé sous contrôle judiciaire, avec interdiction de quitter le territoire, à la suite de faits de corruption.
 </t>
         </is>
       </c>
